--- a/Sheets/Geomap.xlsx
+++ b/Sheets/Geomap.xlsx
@@ -1,1465 +1,1490 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\covid\Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC6B46-7226-48FE-AD18-83074B718A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO.Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geounit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian Capital Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New South Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queensland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasmania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brussels Capital Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Princess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manitoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Brunswick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newfoundland and Labrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Edward Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saskatchewan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwest Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anhui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beijing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chongqing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gansu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guangdong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guangxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guizhou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hainan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heilongjiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiangsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiangxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jilin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liaoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ningxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qinghai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaanxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shandong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sichuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tianjin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinjiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yunnan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhejiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo (Brazzaville)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo (Kinshasa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivory Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faroe Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadeloupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Barthelemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy See</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatican City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint Maarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bougainville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluding Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somaliland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Timor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibraltar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isle of Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anguilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Virgin Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bank and Gaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="486">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ISO.Country</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>geounit</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Brussels Capital Region</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Grand Princess</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Northwest Territories</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>Henan</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hubei</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>Inner Mongolia</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Ningxia</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Congo (Brazzaville)</t>
+  </si>
+  <si>
+    <t>Republic of Congo</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Congo (Kinshasa)</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>Northern Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>St Martin</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>Guinea Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Bougainville</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Excluding Kosovo</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>Taiwan*</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1495,6 +1520,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1776,14 +1810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1806,18 +1842,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>33</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>65</v>
       </c>
       <c r="F2" t="s">
@@ -1827,19 +1862,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>41.1533</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.1683</v>
+      <c r="D3">
+        <v>41.153300000000002</v>
+      </c>
+      <c r="E3">
+        <v>20.168299999999999</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1848,18 +1882,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" t="n">
-        <v>28.0339</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>28.033899999999999</v>
+      </c>
+      <c r="E4">
         <v>1.6596</v>
       </c>
       <c r="F4" t="s">
@@ -1869,18 +1902,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" t="n">
-        <v>42.5063</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>42.506300000000003</v>
+      </c>
+      <c r="E5">
         <v>1.5218</v>
       </c>
       <c r="F5" t="s">
@@ -1890,19 +1922,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-11.2027</v>
       </c>
-      <c r="E6" t="n">
-        <v>17.8739</v>
+      <c r="E6">
+        <v>17.873899999999999</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1911,19 +1942,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>17.0608</v>
       </c>
-      <c r="E7" t="n">
-        <v>-61.7964</v>
+      <c r="E7">
+        <v>-61.796399999999998</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1932,19 +1962,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-38.4161</v>
       </c>
-      <c r="E8" t="n">
-        <v>-63.6167</v>
+      <c r="E8">
+        <v>-63.616700000000002</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -1953,19 +1982,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="n">
-        <v>40.0691</v>
-      </c>
-      <c r="E9" t="n">
-        <v>45.0382</v>
+      <c r="D9">
+        <v>40.069099999999999</v>
+      </c>
+      <c r="E9">
+        <v>45.038200000000003</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1974,7 +2002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1984,11 +2012,11 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="n">
-        <v>-35.4735</v>
-      </c>
-      <c r="E10" t="n">
-        <v>149.0124</v>
+      <c r="D10">
+        <v>-35.473500000000001</v>
+      </c>
+      <c r="E10">
+        <v>149.01240000000001</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1997,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2007,11 +2035,11 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-33.8688</v>
       </c>
-      <c r="E11" t="n">
-        <v>151.2093</v>
+      <c r="E11">
+        <v>151.20930000000001</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -2020,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2030,11 +2058,11 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-12.4634</v>
       </c>
-      <c r="E12" t="n">
-        <v>130.8456</v>
+      <c r="E12">
+        <v>130.84559999999999</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -2043,7 +2071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2053,10 +2081,10 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-28.0167</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>153.4</v>
       </c>
       <c r="F13" t="s">
@@ -2066,7 +2094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2076,11 +2104,11 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-34.9285</v>
       </c>
-      <c r="E14" t="n">
-        <v>138.6007</v>
+      <c r="E14">
+        <v>138.60069999999999</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -2089,7 +2117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2099,11 +2127,11 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="n">
-        <v>-41.4545</v>
-      </c>
-      <c r="E15" t="n">
-        <v>145.9707</v>
+      <c r="D15">
+        <v>-41.454500000000003</v>
+      </c>
+      <c r="E15">
+        <v>145.97069999999999</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -2112,7 +2140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2122,10 +2150,10 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="n">
-        <v>-37.8136</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>-37.813600000000001</v>
+      </c>
+      <c r="E16">
         <v>144.9631</v>
       </c>
       <c r="F16" t="s">
@@ -2135,7 +2163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2145,10 +2173,10 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="n">
-        <v>-31.9505</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>-31.950500000000002</v>
+      </c>
+      <c r="E17">
         <v>115.8605</v>
       </c>
       <c r="F17" t="s">
@@ -2158,18 +2186,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="n">
-        <v>47.5162</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>47.516199999999998</v>
+      </c>
+      <c r="E18">
         <v>14.5501</v>
       </c>
       <c r="F18" t="s">
@@ -2179,19 +2206,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="n">
-        <v>40.1431</v>
-      </c>
-      <c r="E19" t="n">
-        <v>47.5769</v>
+      <c r="D19">
+        <v>40.143099999999997</v>
+      </c>
+      <c r="E19">
+        <v>47.576900000000002</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -2200,19 +2226,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="n">
-        <v>25.0343</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-77.3963</v>
+      <c r="D20">
+        <v>25.034300000000002</v>
+      </c>
+      <c r="E20">
+        <v>-77.396299999999997</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -2221,18 +2246,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>26.0275</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>50.55</v>
       </c>
       <c r="F21" t="s">
@@ -2242,19 +2266,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="n">
-        <v>23.685</v>
-      </c>
-      <c r="E22" t="n">
-        <v>90.3563</v>
+      <c r="D22">
+        <v>23.684999999999999</v>
+      </c>
+      <c r="E22">
+        <v>90.356300000000005</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
@@ -2263,19 +2286,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="n">
-        <v>13.1939</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-59.5432</v>
+      <c r="D23">
+        <v>13.193899999999999</v>
+      </c>
+      <c r="E23">
+        <v>-59.543199999999999</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
@@ -2284,19 +2306,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="n">
-        <v>53.7098</v>
-      </c>
-      <c r="E24" t="n">
-        <v>27.9534</v>
+      <c r="D24">
+        <v>53.709800000000001</v>
+      </c>
+      <c r="E24">
+        <v>27.953399999999998</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -2305,18 +2326,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="n">
-        <v>50.8333</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>50.833300000000001</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
@@ -2326,19 +2346,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="n">
-        <v>13.1939</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-59.5432</v>
+      <c r="D26">
+        <v>13.193899999999999</v>
+      </c>
+      <c r="E26">
+        <v>-59.543199999999999</v>
       </c>
       <c r="F26" t="s">
         <v>54</v>
@@ -2347,19 +2366,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="n">
-        <v>9.3077</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.3158</v>
+      <c r="D27">
+        <v>9.3077000000000005</v>
+      </c>
+      <c r="E27">
+        <v>2.3157999999999999</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
@@ -2368,19 +2386,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="n">
-        <v>27.5142</v>
-      </c>
-      <c r="E28" t="n">
-        <v>90.4336</v>
+      <c r="D28">
+        <v>27.514199999999999</v>
+      </c>
+      <c r="E28">
+        <v>90.433599999999998</v>
       </c>
       <c r="F28" t="s">
         <v>58</v>
@@ -2389,19 +2406,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="n">
-        <v>-16.2902</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-63.5887</v>
+      <c r="D29">
+        <v>-16.290199999999999</v>
+      </c>
+      <c r="E29">
+        <v>-63.588700000000003</v>
       </c>
       <c r="F29" t="s">
         <v>60</v>
@@ -2410,19 +2426,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="n">
-        <v>43.9159</v>
-      </c>
-      <c r="E30" t="n">
-        <v>17.6791</v>
+      <c r="D30">
+        <v>43.915900000000001</v>
+      </c>
+      <c r="E30">
+        <v>17.679099999999998</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -2431,19 +2446,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="n">
-        <v>-22.3285</v>
-      </c>
-      <c r="E31" t="n">
-        <v>24.6849</v>
+      <c r="D31">
+        <v>-22.328499999999998</v>
+      </c>
+      <c r="E31">
+        <v>24.684899999999999</v>
       </c>
       <c r="F31" t="s">
         <v>64</v>
@@ -2452,18 +2466,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="n">
-        <v>-14.235</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="E32">
         <v>-51.9253</v>
       </c>
       <c r="F32" t="s">
@@ -2473,18 +2486,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="n">
-        <v>4.5353</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>4.5353000000000003</v>
+      </c>
+      <c r="E33">
         <v>114.7277</v>
       </c>
       <c r="F33" t="s">
@@ -2494,19 +2506,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="n">
-        <v>42.7339</v>
-      </c>
-      <c r="E34" t="n">
-        <v>25.4858</v>
+      <c r="D34">
+        <v>42.733899999999998</v>
+      </c>
+      <c r="E34">
+        <v>25.485800000000001</v>
       </c>
       <c r="F34" t="s">
         <v>70</v>
@@ -2515,19 +2526,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>71</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="n">
-        <v>12.2383</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-1.5616</v>
+      <c r="D35">
+        <v>12.238300000000001</v>
+      </c>
+      <c r="E35">
+        <v>-1.5616000000000001</v>
       </c>
       <c r="F35" t="s">
         <v>72</v>
@@ -2536,19 +2546,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21.9162</v>
       </c>
-      <c r="E36" t="n">
-        <v>95.956</v>
+      <c r="E36">
+        <v>95.956000000000003</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
@@ -2557,19 +2566,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-3.3731</v>
       </c>
-      <c r="E37" t="n">
-        <v>29.9189</v>
+      <c r="E37">
+        <v>29.918900000000001</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -2578,19 +2586,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="n">
-        <v>16.5388</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-23.0418</v>
+      <c r="D38">
+        <v>16.538799999999998</v>
+      </c>
+      <c r="E38">
+        <v>-23.041799999999999</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
@@ -2599,19 +2606,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>11.55</v>
       </c>
-      <c r="E39" t="n">
-        <v>104.9167</v>
+      <c r="E39">
+        <v>104.91670000000001</v>
       </c>
       <c r="F39" t="s">
         <v>82</v>
@@ -2620,18 +2626,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="E40">
         <v>11.5021</v>
       </c>
       <c r="F40" t="s">
@@ -2641,7 +2646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2651,10 +2656,10 @@
       <c r="C41" t="s">
         <v>86</v>
       </c>
-      <c r="D41" t="n">
-        <v>53.9333</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>53.933300000000003</v>
+      </c>
+      <c r="E41">
         <v>-116.5765</v>
       </c>
       <c r="F41" t="s">
@@ -2664,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2674,10 +2679,10 @@
       <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="n">
-        <v>49.2827</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>49.282699999999998</v>
+      </c>
+      <c r="E42">
         <v>-123.1207</v>
       </c>
       <c r="F42" t="s">
@@ -2687,7 +2692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2697,11 +2702,11 @@
       <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="n">
-        <v>37.6489</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-122.6655</v>
+      <c r="D43">
+        <v>37.648899999999998</v>
+      </c>
+      <c r="E43">
+        <v>-122.66549999999999</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
@@ -2710,7 +2715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2720,11 +2725,11 @@
       <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" t="n">
-        <v>53.7609</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-98.8139</v>
+      <c r="D44">
+        <v>53.760899999999999</v>
+      </c>
+      <c r="E44">
+        <v>-98.813900000000004</v>
       </c>
       <c r="F44" t="s">
         <v>87</v>
@@ -2733,7 +2738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2743,10 +2748,10 @@
       <c r="C45" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="n">
-        <v>46.5653</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>46.565300000000001</v>
+      </c>
+      <c r="E45">
         <v>-66.4619</v>
       </c>
       <c r="F45" t="s">
@@ -2756,7 +2761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -2766,11 +2771,11 @@
       <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>53.1355</v>
       </c>
-      <c r="E46" t="n">
-        <v>-57.6604</v>
+      <c r="E46">
+        <v>-57.660400000000003</v>
       </c>
       <c r="F46" t="s">
         <v>87</v>
@@ -2779,7 +2784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2789,11 +2794,11 @@
       <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="n">
-        <v>44.682</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-63.7443</v>
+      <c r="D47">
+        <v>44.682000000000002</v>
+      </c>
+      <c r="E47">
+        <v>-63.744300000000003</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
@@ -2802,7 +2807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -2812,10 +2817,10 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" t="n">
-        <v>51.2538</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>51.253799999999998</v>
+      </c>
+      <c r="E48">
         <v>-85.3232</v>
       </c>
       <c r="F48" t="s">
@@ -2825,7 +2830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2835,11 +2840,11 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>46.5107</v>
       </c>
-      <c r="E49" t="n">
-        <v>-63.4168</v>
+      <c r="E49">
+        <v>-63.416800000000002</v>
       </c>
       <c r="F49" t="s">
         <v>87</v>
@@ -2848,7 +2853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -2858,11 +2863,11 @@
       <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="D50" t="n">
-        <v>52.9399</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-73.5491</v>
+      <c r="D50">
+        <v>52.939900000000002</v>
+      </c>
+      <c r="E50">
+        <v>-73.549099999999996</v>
       </c>
       <c r="F50" t="s">
         <v>87</v>
@@ -2871,7 +2876,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -2881,10 +2886,10 @@
       <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="n">
-        <v>52.9399</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51">
+        <v>52.939900000000002</v>
+      </c>
+      <c r="E51">
         <v>-106.4509</v>
       </c>
       <c r="F51" t="s">
@@ -2894,7 +2899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -2904,11 +2909,11 @@
       <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="n">
-        <v>64.8255</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-124.8457</v>
+      <c r="D52">
+        <v>64.825500000000005</v>
+      </c>
+      <c r="E52">
+        <v>-124.84569999999999</v>
       </c>
       <c r="F52" t="s">
         <v>87</v>
@@ -2917,7 +2922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -2927,10 +2932,10 @@
       <c r="C53" t="s">
         <v>99</v>
       </c>
-      <c r="D53" t="n">
-        <v>64.2823</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53">
+        <v>64.282300000000006</v>
+      </c>
+      <c r="E53">
         <v>-135</v>
       </c>
       <c r="F53" t="s">
@@ -2940,19 +2945,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="C54"/>
-      <c r="D54" t="n">
-        <v>6.6111</v>
-      </c>
-      <c r="E54" t="n">
-        <v>20.9394</v>
+      <c r="D54">
+        <v>6.6111000000000004</v>
+      </c>
+      <c r="E54">
+        <v>20.939399999999999</v>
       </c>
       <c r="F54" t="s">
         <v>101</v>
@@ -2961,19 +2965,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C55"/>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>15.4542</v>
       </c>
-      <c r="E55" t="n">
-        <v>18.7322</v>
+      <c r="E55">
+        <v>18.732199999999999</v>
       </c>
       <c r="F55" t="s">
         <v>103</v>
@@ -2982,19 +2985,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="C56"/>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-35.6751</v>
       </c>
-      <c r="E56" t="n">
-        <v>-71.543</v>
+      <c r="E56">
+        <v>-71.543000000000006</v>
       </c>
       <c r="F56" t="s">
         <v>105</v>
@@ -3003,7 +3005,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -3013,10 +3015,10 @@
       <c r="C57" t="s">
         <v>107</v>
       </c>
-      <c r="D57" t="n">
-        <v>31.8257</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="D57">
+        <v>31.825700000000001</v>
+      </c>
+      <c r="E57">
         <v>117.2264</v>
       </c>
       <c r="F57" t="s">
@@ -3026,7 +3028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -3036,11 +3038,11 @@
       <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="D58" t="n">
-        <v>40.1824</v>
-      </c>
-      <c r="E58" t="n">
-        <v>116.4142</v>
+      <c r="D58">
+        <v>40.182400000000001</v>
+      </c>
+      <c r="E58">
+        <v>116.41419999999999</v>
       </c>
       <c r="F58" t="s">
         <v>108</v>
@@ -3049,7 +3051,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3059,10 +3061,10 @@
       <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c r="D59" t="n">
-        <v>30.0572</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59">
+        <v>30.057200000000002</v>
+      </c>
+      <c r="E59">
         <v>107.874</v>
       </c>
       <c r="F59" t="s">
@@ -3072,7 +3074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -3082,11 +3084,11 @@
       <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c r="D60" t="n">
-        <v>26.0789</v>
-      </c>
-      <c r="E60" t="n">
-        <v>117.9874</v>
+      <c r="D60">
+        <v>26.078900000000001</v>
+      </c>
+      <c r="E60">
+        <v>117.98739999999999</v>
       </c>
       <c r="F60" t="s">
         <v>108</v>
@@ -3095,7 +3097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3105,10 +3107,10 @@
       <c r="C61" t="s">
         <v>112</v>
       </c>
-      <c r="D61" t="n">
-        <v>37.8099</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61">
+        <v>37.809899999999999</v>
+      </c>
+      <c r="E61">
         <v>101.0583</v>
       </c>
       <c r="F61" t="s">
@@ -3118,7 +3120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3128,11 +3130,11 @@
       <c r="C62" t="s">
         <v>113</v>
       </c>
-      <c r="D62" t="n">
-        <v>23.3417</v>
-      </c>
-      <c r="E62" t="n">
-        <v>113.4244</v>
+      <c r="D62">
+        <v>23.341699999999999</v>
+      </c>
+      <c r="E62">
+        <v>113.42440000000001</v>
       </c>
       <c r="F62" t="s">
         <v>108</v>
@@ -3141,7 +3143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3151,10 +3153,10 @@
       <c r="C63" t="s">
         <v>114</v>
       </c>
-      <c r="D63" t="n">
-        <v>23.8298</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="D63">
+        <v>23.829799999999999</v>
+      </c>
+      <c r="E63">
         <v>108.7881</v>
       </c>
       <c r="F63" t="s">
@@ -3164,7 +3166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3174,11 +3176,11 @@
       <c r="C64" t="s">
         <v>115</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>26.8154</v>
       </c>
-      <c r="E64" t="n">
-        <v>106.8748</v>
+      <c r="E64">
+        <v>106.87479999999999</v>
       </c>
       <c r="F64" t="s">
         <v>108</v>
@@ -3187,7 +3189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -3197,10 +3199,10 @@
       <c r="C65" t="s">
         <v>116</v>
       </c>
-      <c r="D65" t="n">
-        <v>19.1959</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="D65">
+        <v>19.195900000000002</v>
+      </c>
+      <c r="E65">
         <v>109.7453</v>
       </c>
       <c r="F65" t="s">
@@ -3210,7 +3212,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3220,10 +3222,10 @@
       <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="D66" t="n">
-        <v>39.549</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="D66">
+        <v>39.548999999999999</v>
+      </c>
+      <c r="E66">
         <v>116.1306</v>
       </c>
       <c r="F66" t="s">
@@ -3233,7 +3235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3243,10 +3245,10 @@
       <c r="C67" t="s">
         <v>118</v>
       </c>
-      <c r="D67" t="n">
-        <v>47.862</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="D67">
+        <v>47.862000000000002</v>
+      </c>
+      <c r="E67">
         <v>127.7615</v>
       </c>
       <c r="F67" t="s">
@@ -3256,7 +3258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3266,10 +3268,10 @@
       <c r="C68" t="s">
         <v>119</v>
       </c>
-      <c r="D68" t="n">
-        <v>33.882</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="D68">
+        <v>33.881999999999998</v>
+      </c>
+      <c r="E68">
         <v>113.614</v>
       </c>
       <c r="F68" t="s">
@@ -3279,7 +3281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3289,10 +3291,10 @@
       <c r="C69" t="s">
         <v>120</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>22.3</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>114.2</v>
       </c>
       <c r="F69" t="s">
@@ -3302,7 +3304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3312,11 +3314,11 @@
       <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>30.9756</v>
       </c>
-      <c r="E70" t="n">
-        <v>112.2707</v>
+      <c r="E70">
+        <v>112.27070000000001</v>
       </c>
       <c r="F70" t="s">
         <v>108</v>
@@ -3325,7 +3327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3335,10 +3337,10 @@
       <c r="C71" t="s">
         <v>122</v>
       </c>
-      <c r="D71" t="n">
-        <v>27.6104</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D71">
+        <v>27.610399999999998</v>
+      </c>
+      <c r="E71">
         <v>111.7088</v>
       </c>
       <c r="F71" t="s">
@@ -3348,7 +3350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3358,10 +3360,10 @@
       <c r="C72" t="s">
         <v>123</v>
       </c>
-      <c r="D72" t="n">
-        <v>44.0935</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D72">
+        <v>44.093499999999999</v>
+      </c>
+      <c r="E72">
         <v>113.9448</v>
       </c>
       <c r="F72" t="s">
@@ -3371,7 +3373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -3381,10 +3383,10 @@
       <c r="C73" t="s">
         <v>124</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>32.9711</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>119.455</v>
       </c>
       <c r="F73" t="s">
@@ -3394,7 +3396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -3404,10 +3406,10 @@
       <c r="C74" t="s">
         <v>125</v>
       </c>
-      <c r="D74" t="n">
-        <v>27.614</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="D74">
+        <v>27.614000000000001</v>
+      </c>
+      <c r="E74">
         <v>115.7221</v>
       </c>
       <c r="F74" t="s">
@@ -3417,7 +3419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -3427,10 +3429,10 @@
       <c r="C75" t="s">
         <v>126</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>43.6661</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>126.1923</v>
       </c>
       <c r="F75" t="s">
@@ -3440,7 +3442,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -3450,11 +3452,11 @@
       <c r="C76" t="s">
         <v>127</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>41.2956</v>
       </c>
-      <c r="E76" t="n">
-        <v>122.6085</v>
+      <c r="E76">
+        <v>122.60850000000001</v>
       </c>
       <c r="F76" t="s">
         <v>108</v>
@@ -3463,7 +3465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -3473,10 +3475,10 @@
       <c r="C77" t="s">
         <v>128</v>
       </c>
-      <c r="D77" t="n">
-        <v>22.1667</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="D77">
+        <v>22.166699999999999</v>
+      </c>
+      <c r="E77">
         <v>113.55</v>
       </c>
       <c r="F77" t="s">
@@ -3486,7 +3488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -3496,11 +3498,11 @@
       <c r="C78" t="s">
         <v>129</v>
       </c>
-      <c r="D78" t="n">
-        <v>37.2692</v>
-      </c>
-      <c r="E78" t="n">
-        <v>106.1655</v>
+      <c r="D78">
+        <v>37.269199999999998</v>
+      </c>
+      <c r="E78">
+        <v>106.16549999999999</v>
       </c>
       <c r="F78" t="s">
         <v>108</v>
@@ -3509,7 +3511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -3519,11 +3521,11 @@
       <c r="C79" t="s">
         <v>130</v>
       </c>
-      <c r="D79" t="n">
-        <v>35.7452</v>
-      </c>
-      <c r="E79" t="n">
-        <v>95.9956</v>
+      <c r="D79">
+        <v>35.745199999999997</v>
+      </c>
+      <c r="E79">
+        <v>95.995599999999996</v>
       </c>
       <c r="F79" t="s">
         <v>108</v>
@@ -3532,7 +3534,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -3542,11 +3544,11 @@
       <c r="C80" t="s">
         <v>131</v>
       </c>
-      <c r="D80" t="n">
-        <v>35.1917</v>
-      </c>
-      <c r="E80" t="n">
-        <v>108.8701</v>
+      <c r="D80">
+        <v>35.191699999999997</v>
+      </c>
+      <c r="E80">
+        <v>108.87009999999999</v>
       </c>
       <c r="F80" t="s">
         <v>108</v>
@@ -3555,7 +3557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3565,10 +3567,10 @@
       <c r="C81" t="s">
         <v>132</v>
       </c>
-      <c r="D81" t="n">
-        <v>36.3427</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="D81">
+        <v>36.342700000000001</v>
+      </c>
+      <c r="E81">
         <v>118.1498</v>
       </c>
       <c r="F81" t="s">
@@ -3578,7 +3580,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3588,10 +3590,10 @@
       <c r="C82" t="s">
         <v>133</v>
       </c>
-      <c r="D82" t="n">
-        <v>31.202</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="D82">
+        <v>31.202000000000002</v>
+      </c>
+      <c r="E82">
         <v>121.4491</v>
       </c>
       <c r="F82" t="s">
@@ -3601,7 +3603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -3611,11 +3613,11 @@
       <c r="C83" t="s">
         <v>134</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>37.5777</v>
       </c>
-      <c r="E83" t="n">
-        <v>112.2922</v>
+      <c r="E83">
+        <v>112.29219999999999</v>
       </c>
       <c r="F83" t="s">
         <v>108</v>
@@ -3624,7 +3626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -3634,10 +3636,10 @@
       <c r="C84" t="s">
         <v>135</v>
       </c>
-      <c r="D84" t="n">
-        <v>30.6171</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D84">
+        <v>30.617100000000001</v>
+      </c>
+      <c r="E84">
         <v>102.7103</v>
       </c>
       <c r="F84" t="s">
@@ -3647,7 +3649,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3657,11 +3659,11 @@
       <c r="C85" t="s">
         <v>136</v>
       </c>
-      <c r="D85" t="n">
-        <v>39.3054</v>
-      </c>
-      <c r="E85" t="n">
-        <v>117.323</v>
+      <c r="D85">
+        <v>39.305399999999999</v>
+      </c>
+      <c r="E85">
+        <v>117.32299999999999</v>
       </c>
       <c r="F85" t="s">
         <v>108</v>
@@ -3670,7 +3672,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3680,11 +3682,11 @@
       <c r="C86" t="s">
         <v>137</v>
       </c>
-      <c r="D86" t="n">
-        <v>31.6927</v>
-      </c>
-      <c r="E86" t="n">
-        <v>88.0924</v>
+      <c r="D86">
+        <v>31.692699999999999</v>
+      </c>
+      <c r="E86">
+        <v>88.092399999999998</v>
       </c>
       <c r="F86" t="s">
         <v>108</v>
@@ -3693,7 +3695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -3703,11 +3705,11 @@
       <c r="C87" t="s">
         <v>138</v>
       </c>
-      <c r="D87" t="n">
-        <v>41.1129</v>
-      </c>
-      <c r="E87" t="n">
-        <v>85.2401</v>
+      <c r="D87">
+        <v>41.112900000000003</v>
+      </c>
+      <c r="E87">
+        <v>85.240099999999998</v>
       </c>
       <c r="F87" t="s">
         <v>108</v>
@@ -3716,7 +3718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -3726,11 +3728,11 @@
       <c r="C88" t="s">
         <v>139</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>24.974</v>
       </c>
-      <c r="E88" t="n">
-        <v>101.487</v>
+      <c r="E88">
+        <v>101.48699999999999</v>
       </c>
       <c r="F88" t="s">
         <v>108</v>
@@ -3739,7 +3741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -3749,10 +3751,10 @@
       <c r="C89" t="s">
         <v>140</v>
       </c>
-      <c r="D89" t="n">
-        <v>29.1832</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="D89">
+        <v>29.183199999999999</v>
+      </c>
+      <c r="E89">
         <v>120.0934</v>
       </c>
       <c r="F89" t="s">
@@ -3762,19 +3764,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>141</v>
       </c>
       <c r="B90" t="s">
         <v>141</v>
       </c>
-      <c r="C90"/>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>4.5709</v>
       </c>
-      <c r="E90" t="n">
-        <v>-74.2973</v>
+      <c r="E90">
+        <v>-74.297300000000007</v>
       </c>
       <c r="F90" t="s">
         <v>142</v>
@@ -3783,19 +3784,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>143</v>
       </c>
       <c r="B91" t="s">
         <v>144</v>
       </c>
-      <c r="C91"/>
-      <c r="D91" t="n">
-        <v>-4.0383</v>
-      </c>
-      <c r="E91" t="n">
-        <v>21.7587</v>
+      <c r="D91">
+        <v>-4.0382999999999996</v>
+      </c>
+      <c r="E91">
+        <v>21.758700000000001</v>
       </c>
       <c r="F91" t="s">
         <v>145</v>
@@ -3804,19 +3804,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>146</v>
       </c>
       <c r="B92" t="s">
         <v>147</v>
       </c>
-      <c r="C92"/>
-      <c r="D92" t="n">
-        <v>-4.0383</v>
-      </c>
-      <c r="E92" t="n">
-        <v>21.7587</v>
+      <c r="D92">
+        <v>-4.0382999999999996</v>
+      </c>
+      <c r="E92">
+        <v>21.758700000000001</v>
       </c>
       <c r="F92" t="s">
         <v>148</v>
@@ -3825,19 +3824,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>149</v>
       </c>
       <c r="B93" t="s">
         <v>149</v>
       </c>
-      <c r="C93"/>
-      <c r="D93" t="n">
-        <v>9.7489</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-83.7534</v>
+      <c r="D93">
+        <v>9.7489000000000008</v>
+      </c>
+      <c r="E93">
+        <v>-83.753399999999999</v>
       </c>
       <c r="F93" t="s">
         <v>150</v>
@@ -3846,19 +3844,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>151</v>
       </c>
       <c r="B94" t="s">
         <v>151</v>
       </c>
-      <c r="C94"/>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>7.54</v>
       </c>
-      <c r="E94" t="n">
-        <v>-5.5471</v>
+      <c r="E94">
+        <v>-5.5471000000000004</v>
       </c>
       <c r="F94" t="s">
         <v>152</v>
@@ -3867,18 +3864,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>154</v>
       </c>
       <c r="B95" t="s">
         <v>154</v>
       </c>
-      <c r="C95"/>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>45.1</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>15.2</v>
       </c>
       <c r="F95" t="s">
@@ -3888,18 +3884,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>156</v>
       </c>
       <c r="B96" t="s">
         <v>156</v>
       </c>
-      <c r="C96"/>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>22</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-80</v>
       </c>
       <c r="F96" t="s">
@@ -3909,19 +3904,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>158</v>
       </c>
       <c r="B97" t="s">
         <v>158</v>
       </c>
-      <c r="C97"/>
-      <c r="D97" t="n">
-        <v>35.1264</v>
-      </c>
-      <c r="E97" t="n">
-        <v>33.4299</v>
+      <c r="D97">
+        <v>35.126399999999997</v>
+      </c>
+      <c r="E97">
+        <v>33.429900000000004</v>
       </c>
       <c r="F97" t="s">
         <v>159</v>
@@ -3930,19 +3924,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>161</v>
       </c>
       <c r="B98" t="s">
         <v>162</v>
       </c>
-      <c r="C98"/>
-      <c r="D98" t="n">
-        <v>49.8175</v>
-      </c>
-      <c r="E98" t="n">
-        <v>15.473</v>
+      <c r="D98">
+        <v>49.817500000000003</v>
+      </c>
+      <c r="E98">
+        <v>15.473000000000001</v>
       </c>
       <c r="F98" t="s">
         <v>163</v>
@@ -3951,7 +3944,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -3961,11 +3954,11 @@
       <c r="C99" t="s">
         <v>165</v>
       </c>
-      <c r="D99" t="n">
-        <v>61.8926</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-6.9118</v>
+      <c r="D99">
+        <v>61.892600000000002</v>
+      </c>
+      <c r="E99">
+        <v>-6.9118000000000004</v>
       </c>
       <c r="F99" t="s">
         <v>166</v>
@@ -3974,7 +3967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -3984,11 +3977,11 @@
       <c r="C100" t="s">
         <v>167</v>
       </c>
-      <c r="D100" t="n">
-        <v>71.7069</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-42.6043</v>
+      <c r="D100">
+        <v>71.706900000000005</v>
+      </c>
+      <c r="E100">
+        <v>-42.604300000000002</v>
       </c>
       <c r="F100" t="s">
         <v>166</v>
@@ -3997,7 +3990,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -4007,11 +4000,11 @@
       <c r="C101" t="s">
         <v>168</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>56.2639</v>
       </c>
-      <c r="E101" t="n">
-        <v>9.5018</v>
+      <c r="E101">
+        <v>9.5017999999999994</v>
       </c>
       <c r="F101" t="s">
         <v>166</v>
@@ -4020,19 +4013,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>169</v>
       </c>
       <c r="B102" t="s">
         <v>169</v>
       </c>
-      <c r="C102"/>
-      <c r="D102" t="n">
-        <v>11.8251</v>
-      </c>
-      <c r="E102" t="n">
-        <v>42.5903</v>
+      <c r="D102">
+        <v>11.825100000000001</v>
+      </c>
+      <c r="E102">
+        <v>42.590299999999999</v>
       </c>
       <c r="F102" t="s">
         <v>170</v>
@@ -4041,19 +4033,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>171</v>
       </c>
       <c r="B103" t="s">
         <v>171</v>
       </c>
-      <c r="C103"/>
-      <c r="D103" t="n">
-        <v>15.415</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-61.371</v>
+      <c r="D103">
+        <v>15.414999999999999</v>
+      </c>
+      <c r="E103">
+        <v>-61.371000000000002</v>
       </c>
       <c r="F103" t="s">
         <v>172</v>
@@ -4062,19 +4053,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>173</v>
       </c>
       <c r="B104" t="s">
         <v>173</v>
       </c>
-      <c r="C104"/>
-      <c r="D104" t="n">
-        <v>18.7357</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-70.1627</v>
+      <c r="D104">
+        <v>18.735700000000001</v>
+      </c>
+      <c r="E104">
+        <v>-70.162700000000001</v>
       </c>
       <c r="F104" t="s">
         <v>174</v>
@@ -4083,19 +4073,18 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>175</v>
       </c>
-      <c r="C105"/>
-      <c r="D105" t="n">
-        <v>-1.8312</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-78.1834</v>
+      <c r="D105">
+        <v>-1.8311999999999999</v>
+      </c>
+      <c r="E105">
+        <v>-78.183400000000006</v>
       </c>
       <c r="F105" t="s">
         <v>176</v>
@@ -4104,18 +4093,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>177</v>
       </c>
-      <c r="C106"/>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>26</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
@@ -4125,19 +4113,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>179</v>
       </c>
       <c r="B107" t="s">
         <v>179</v>
       </c>
-      <c r="C107"/>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>13.7942</v>
       </c>
-      <c r="E107" t="n">
-        <v>-88.8965</v>
+      <c r="E107">
+        <v>-88.896500000000003</v>
       </c>
       <c r="F107" t="s">
         <v>180</v>
@@ -4146,18 +4133,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>181</v>
       </c>
       <c r="B108" t="s">
         <v>181</v>
       </c>
-      <c r="C108"/>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>1.5</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>10</v>
       </c>
       <c r="F108" t="s">
@@ -4167,19 +4153,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>183</v>
       </c>
       <c r="B109" t="s">
         <v>183</v>
       </c>
-      <c r="C109"/>
-      <c r="D109" t="n">
-        <v>15.1794</v>
-      </c>
-      <c r="E109" t="n">
-        <v>39.7823</v>
+      <c r="D109">
+        <v>15.179399999999999</v>
+      </c>
+      <c r="E109">
+        <v>39.782299999999999</v>
       </c>
       <c r="F109" t="s">
         <v>184</v>
@@ -4188,18 +4173,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>185</v>
       </c>
       <c r="B110" t="s">
         <v>185</v>
       </c>
-      <c r="C110"/>
-      <c r="D110" t="n">
-        <v>58.5953</v>
-      </c>
-      <c r="E110" t="n">
+      <c r="D110">
+        <v>58.595300000000002</v>
+      </c>
+      <c r="E110">
         <v>25.0136</v>
       </c>
       <c r="F110" t="s">
@@ -4209,19 +4193,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>187</v>
       </c>
       <c r="B111" t="s">
         <v>188</v>
       </c>
-      <c r="C111"/>
-      <c r="D111" t="n">
-        <v>-26.5225</v>
-      </c>
-      <c r="E111" t="n">
-        <v>31.4659</v>
+      <c r="D111">
+        <v>-26.522500000000001</v>
+      </c>
+      <c r="E111">
+        <v>31.465900000000001</v>
       </c>
       <c r="F111" t="s">
         <v>189</v>
@@ -4230,19 +4213,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>190</v>
       </c>
       <c r="B112" t="s">
         <v>190</v>
       </c>
-      <c r="C112"/>
-      <c r="D112" t="n">
-        <v>9.145</v>
-      </c>
-      <c r="E112" t="n">
-        <v>40.4897</v>
+      <c r="D112">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="E112">
+        <v>40.489699999999999</v>
       </c>
       <c r="F112" t="s">
         <v>191</v>
@@ -4251,18 +4233,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>192</v>
       </c>
       <c r="B113" t="s">
         <v>192</v>
       </c>
-      <c r="C113"/>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-17.7134</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>178.065</v>
       </c>
       <c r="F113" t="s">
@@ -4272,18 +4253,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>194</v>
       </c>
       <c r="B114" t="s">
         <v>194</v>
       </c>
-      <c r="C114"/>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>64</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>26</v>
       </c>
       <c r="F114" t="s">
@@ -4293,7 +4273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -4303,11 +4283,11 @@
       <c r="C115" t="s">
         <v>197</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>3.9339</v>
       </c>
-      <c r="E115" t="n">
-        <v>-53.1258</v>
+      <c r="E115">
+        <v>-53.125799999999998</v>
       </c>
       <c r="F115" t="s">
         <v>198</v>
@@ -4316,7 +4296,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -4326,10 +4306,10 @@
       <c r="C116" t="s">
         <v>199</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-17.6797</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>149.4068</v>
       </c>
       <c r="F116" t="s">
@@ -4339,7 +4319,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -4349,11 +4329,11 @@
       <c r="C117" t="s">
         <v>200</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>16.25</v>
       </c>
-      <c r="E117" t="n">
-        <v>-61.5833</v>
+      <c r="E117">
+        <v>-61.583300000000001</v>
       </c>
       <c r="F117" t="s">
         <v>198</v>
@@ -4362,7 +4342,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -4372,11 +4352,11 @@
       <c r="C118" t="s">
         <v>201</v>
       </c>
-      <c r="D118" t="n">
-        <v>-12.8275</v>
-      </c>
-      <c r="E118" t="n">
-        <v>45.1662</v>
+      <c r="D118">
+        <v>-12.827500000000001</v>
+      </c>
+      <c r="E118">
+        <v>45.166200000000003</v>
       </c>
       <c r="F118" t="s">
         <v>198</v>
@@ -4385,7 +4365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>196</v>
       </c>
@@ -4395,11 +4375,11 @@
       <c r="C119" t="s">
         <v>202</v>
       </c>
-      <c r="D119" t="n">
-        <v>-20.9043</v>
-      </c>
-      <c r="E119" t="n">
-        <v>165.618</v>
+      <c r="D119">
+        <v>-20.904299999999999</v>
+      </c>
+      <c r="E119">
+        <v>165.61799999999999</v>
       </c>
       <c r="F119" t="s">
         <v>198</v>
@@ -4408,7 +4388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>196</v>
       </c>
@@ -4418,11 +4398,11 @@
       <c r="C120" t="s">
         <v>203</v>
       </c>
-      <c r="D120" t="n">
-        <v>-21.1351</v>
-      </c>
-      <c r="E120" t="n">
-        <v>55.2471</v>
+      <c r="D120">
+        <v>-21.135100000000001</v>
+      </c>
+      <c r="E120">
+        <v>55.247100000000003</v>
       </c>
       <c r="F120" t="s">
         <v>198</v>
@@ -4431,7 +4411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>196</v>
       </c>
@@ -4441,11 +4421,11 @@
       <c r="C121" t="s">
         <v>204</v>
       </c>
-      <c r="D121" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-62.8333</v>
+      <c r="D121">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E121">
+        <v>-62.833300000000001</v>
       </c>
       <c r="F121" t="s">
         <v>198</v>
@@ -4454,7 +4434,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>196</v>
       </c>
@@ -4464,10 +4444,10 @@
       <c r="C122" t="s">
         <v>205</v>
       </c>
-      <c r="D122" t="n">
-        <v>18.0708</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="D122">
+        <v>18.070799999999998</v>
+      </c>
+      <c r="E122">
         <v>-63.0501</v>
       </c>
       <c r="F122" t="s">
@@ -4477,7 +4457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -4487,10 +4467,10 @@
       <c r="C123" t="s">
         <v>206</v>
       </c>
-      <c r="D123" t="n">
-        <v>14.6415</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="D123">
+        <v>14.641500000000001</v>
+      </c>
+      <c r="E123">
         <v>-61.0242</v>
       </c>
       <c r="F123" t="s">
@@ -4500,7 +4480,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -4510,11 +4490,11 @@
       <c r="C124" t="s">
         <v>168</v>
       </c>
-      <c r="D124" t="n">
-        <v>46.2276</v>
-      </c>
-      <c r="E124" t="n">
-        <v>2.2137</v>
+      <c r="D124">
+        <v>46.227600000000002</v>
+      </c>
+      <c r="E124">
+        <v>2.2136999999999998</v>
       </c>
       <c r="F124" t="s">
         <v>198</v>
@@ -4523,7 +4503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -4533,11 +4513,11 @@
       <c r="C125" t="s">
         <v>207</v>
       </c>
-      <c r="D125" t="n">
-        <v>46.8852</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-56.3159</v>
+      <c r="D125">
+        <v>46.885199999999998</v>
+      </c>
+      <c r="E125">
+        <v>-56.315899999999999</v>
       </c>
       <c r="F125" t="s">
         <v>198</v>
@@ -4546,19 +4526,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>208</v>
       </c>
       <c r="B126" t="s">
         <v>208</v>
       </c>
-      <c r="C126"/>
-      <c r="D126" t="n">
-        <v>-0.8037</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11.6094</v>
+      <c r="D126">
+        <v>-0.80369999999999997</v>
+      </c>
+      <c r="E126">
+        <v>11.609400000000001</v>
       </c>
       <c r="F126" t="s">
         <v>209</v>
@@ -4567,18 +4546,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>210</v>
       </c>
       <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="C127"/>
-      <c r="D127" t="n">
-        <v>13.4432</v>
-      </c>
-      <c r="E127" t="n">
+      <c r="D127">
+        <v>13.443199999999999</v>
+      </c>
+      <c r="E127">
         <v>-15.3101</v>
       </c>
       <c r="F127" t="s">
@@ -4588,19 +4566,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>212</v>
       </c>
       <c r="B128" t="s">
         <v>212</v>
       </c>
-      <c r="C128"/>
-      <c r="D128" t="n">
-        <v>42.3154</v>
-      </c>
-      <c r="E128" t="n">
-        <v>43.3569</v>
+      <c r="D128">
+        <v>42.315399999999997</v>
+      </c>
+      <c r="E128">
+        <v>43.356900000000003</v>
       </c>
       <c r="F128" t="s">
         <v>213</v>
@@ -4609,18 +4586,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>214</v>
       </c>
       <c r="B129" t="s">
         <v>214</v>
       </c>
-      <c r="C129"/>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>51</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>9</v>
       </c>
       <c r="F129" t="s">
@@ -4630,19 +4606,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>216</v>
       </c>
       <c r="B130" t="s">
         <v>216</v>
       </c>
-      <c r="C130"/>
-      <c r="D130" t="n">
-        <v>7.9465</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-1.0232</v>
+      <c r="D130">
+        <v>7.9465000000000003</v>
+      </c>
+      <c r="E130">
+        <v>-1.0232000000000001</v>
       </c>
       <c r="F130" t="s">
         <v>217</v>
@@ -4651,19 +4626,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>218</v>
       </c>
       <c r="B131" t="s">
         <v>218</v>
       </c>
-      <c r="C131"/>
-      <c r="D131" t="n">
-        <v>39.0742</v>
-      </c>
-      <c r="E131" t="n">
-        <v>21.8243</v>
+      <c r="D131">
+        <v>39.074199999999998</v>
+      </c>
+      <c r="E131">
+        <v>21.824300000000001</v>
       </c>
       <c r="F131" t="s">
         <v>219</v>
@@ -4672,19 +4646,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>220</v>
       </c>
       <c r="B132" t="s">
         <v>220</v>
       </c>
-      <c r="C132"/>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>12.1165</v>
       </c>
-      <c r="E132" t="n">
-        <v>-61.679</v>
+      <c r="E132">
+        <v>-61.679000000000002</v>
       </c>
       <c r="F132" t="s">
         <v>221</v>
@@ -4693,19 +4666,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>222</v>
       </c>
       <c r="B133" t="s">
         <v>222</v>
       </c>
-      <c r="C133"/>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>15.7835</v>
       </c>
-      <c r="E133" t="n">
-        <v>-90.2308</v>
+      <c r="E133">
+        <v>-90.230800000000002</v>
       </c>
       <c r="F133" t="s">
         <v>223</v>
@@ -4714,19 +4686,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>224</v>
       </c>
       <c r="B134" t="s">
         <v>224</v>
       </c>
-      <c r="C134"/>
-      <c r="D134" t="n">
-        <v>9.9456</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-9.6966</v>
+      <c r="D134">
+        <v>9.9456000000000007</v>
+      </c>
+      <c r="E134">
+        <v>-9.6966000000000001</v>
       </c>
       <c r="F134" t="s">
         <v>225</v>
@@ -4735,19 +4706,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>226</v>
       </c>
       <c r="B135" t="s">
         <v>226</v>
       </c>
-      <c r="C135"/>
-      <c r="D135" t="n">
-        <v>11.8037</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-15.1804</v>
+      <c r="D135">
+        <v>11.803699999999999</v>
+      </c>
+      <c r="E135">
+        <v>-15.180400000000001</v>
       </c>
       <c r="F135" t="s">
         <v>227</v>
@@ -4756,18 +4726,17 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>229</v>
       </c>
       <c r="B136" t="s">
         <v>229</v>
       </c>
-      <c r="C136"/>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>5</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>-58.75</v>
       </c>
       <c r="F136" t="s">
@@ -4777,19 +4746,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>231</v>
       </c>
       <c r="B137" t="s">
         <v>231</v>
       </c>
-      <c r="C137"/>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>18.9712</v>
       </c>
-      <c r="E137" t="n">
-        <v>-72.2852</v>
+      <c r="E137">
+        <v>-72.285200000000003</v>
       </c>
       <c r="F137" t="s">
         <v>232</v>
@@ -4798,18 +4766,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>233</v>
       </c>
       <c r="B138" t="s">
         <v>234</v>
       </c>
-      <c r="C138"/>
-      <c r="D138" t="n">
-        <v>41.9029</v>
-      </c>
-      <c r="E138" t="n">
+      <c r="D138">
+        <v>41.902900000000002</v>
+      </c>
+      <c r="E138">
         <v>12.4534</v>
       </c>
       <c r="F138" t="s">
@@ -4819,19 +4786,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>237</v>
       </c>
       <c r="B139" t="s">
         <v>237</v>
       </c>
-      <c r="C139"/>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>15.2</v>
       </c>
-      <c r="E139" t="n">
-        <v>-86.2419</v>
+      <c r="E139">
+        <v>-86.241900000000001</v>
       </c>
       <c r="F139" t="s">
         <v>238</v>
@@ -4840,19 +4806,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>239</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
       </c>
-      <c r="C140"/>
-      <c r="D140" t="n">
-        <v>47.1625</v>
-      </c>
-      <c r="E140" t="n">
-        <v>19.5033</v>
+      <c r="D140">
+        <v>47.162500000000001</v>
+      </c>
+      <c r="E140">
+        <v>19.503299999999999</v>
       </c>
       <c r="F140" t="s">
         <v>240</v>
@@ -4861,19 +4826,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>241</v>
       </c>
       <c r="B141" t="s">
         <v>241</v>
       </c>
-      <c r="C141"/>
-      <c r="D141" t="n">
-        <v>64.9631</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-19.0208</v>
+      <c r="D141">
+        <v>64.963099999999997</v>
+      </c>
+      <c r="E141">
+        <v>-19.020800000000001</v>
       </c>
       <c r="F141" t="s">
         <v>242</v>
@@ -4882,18 +4846,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>243</v>
       </c>
       <c r="B142" t="s">
         <v>243</v>
       </c>
-      <c r="C142"/>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>21</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>78</v>
       </c>
       <c r="F142" t="s">
@@ -4903,18 +4866,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>245</v>
       </c>
       <c r="B143" t="s">
         <v>245</v>
       </c>
-      <c r="C143"/>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-0.7893</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>113.9213</v>
       </c>
       <c r="F143" t="s">
@@ -4924,18 +4886,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>247</v>
       </c>
       <c r="B144" t="s">
         <v>247</v>
       </c>
-      <c r="C144"/>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>32</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>53</v>
       </c>
       <c r="F144" t="s">
@@ -4945,18 +4906,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>249</v>
       </c>
       <c r="B145" t="s">
         <v>249</v>
       </c>
-      <c r="C145"/>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>33</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>44</v>
       </c>
       <c r="F145" t="s">
@@ -4966,19 +4926,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>251</v>
       </c>
       <c r="B146" t="s">
         <v>251</v>
       </c>
-      <c r="C146"/>
-      <c r="D146" t="n">
-        <v>53.1424</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-7.6921</v>
+      <c r="D146">
+        <v>53.142400000000002</v>
+      </c>
+      <c r="E146">
+        <v>-7.6920999999999999</v>
       </c>
       <c r="F146" t="s">
         <v>252</v>
@@ -4987,18 +4946,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>253</v>
       </c>
       <c r="B147" t="s">
         <v>253</v>
       </c>
-      <c r="C147"/>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>31</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>35</v>
       </c>
       <c r="F147" t="s">
@@ -5008,18 +4966,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>255</v>
       </c>
       <c r="B148" t="s">
         <v>255</v>
       </c>
-      <c r="C148"/>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>43</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>12</v>
       </c>
       <c r="F148" t="s">
@@ -5029,19 +4986,18 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>257</v>
       </c>
       <c r="B149" t="s">
         <v>257</v>
       </c>
-      <c r="C149"/>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>18.1096</v>
       </c>
-      <c r="E149" t="n">
-        <v>-77.2975</v>
+      <c r="E149">
+        <v>-77.297499999999999</v>
       </c>
       <c r="F149" t="s">
         <v>258</v>
@@ -5050,18 +5006,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>259</v>
       </c>
       <c r="B150" t="s">
         <v>259</v>
       </c>
-      <c r="C150"/>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>36</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>138</v>
       </c>
       <c r="F150" t="s">
@@ -5071,18 +5026,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>261</v>
       </c>
       <c r="B151" t="s">
         <v>261</v>
       </c>
-      <c r="C151"/>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>31.24</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>36.51</v>
       </c>
       <c r="F151" t="s">
@@ -5092,19 +5046,18 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>263</v>
       </c>
       <c r="B152" t="s">
         <v>263</v>
       </c>
-      <c r="C152"/>
-      <c r="D152" t="n">
-        <v>48.0196</v>
-      </c>
-      <c r="E152" t="n">
-        <v>66.9237</v>
+      <c r="D152">
+        <v>48.019599999999997</v>
+      </c>
+      <c r="E152">
+        <v>66.923699999999997</v>
       </c>
       <c r="F152" t="s">
         <v>264</v>
@@ -5113,19 +5066,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>265</v>
       </c>
       <c r="B153" t="s">
         <v>265</v>
       </c>
-      <c r="C153"/>
-      <c r="D153" t="n">
-        <v>-0.0236</v>
-      </c>
-      <c r="E153" t="n">
-        <v>37.9062</v>
+      <c r="D153">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="E153">
+        <v>37.906199999999998</v>
       </c>
       <c r="F153" t="s">
         <v>266</v>
@@ -5134,18 +5086,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>267</v>
       </c>
       <c r="B154" t="s">
         <v>268</v>
       </c>
-      <c r="C154"/>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>36</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>128</v>
       </c>
       <c r="F154" t="s">
@@ -5155,7 +5106,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>270</v>
       </c>
@@ -5165,10 +5116,10 @@
       <c r="C155" t="s">
         <v>270</v>
       </c>
-      <c r="D155" t="n">
-        <v>42.602636</v>
-      </c>
-      <c r="E155" t="n">
+      <c r="D155">
+        <v>42.602635999999997</v>
+      </c>
+      <c r="E155">
         <v>20.902977</v>
       </c>
       <c r="F155" t="s">
@@ -5178,18 +5129,17 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>273</v>
       </c>
       <c r="B156" t="s">
         <v>273</v>
       </c>
-      <c r="C156"/>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>29.5</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>47.75</v>
       </c>
       <c r="F156" t="s">
@@ -5199,19 +5149,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>275</v>
       </c>
-      <c r="C157"/>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>41.2044</v>
       </c>
-      <c r="E157" t="n">
-        <v>74.7661</v>
+      <c r="E157">
+        <v>74.766099999999994</v>
       </c>
       <c r="F157" t="s">
         <v>276</v>
@@ -5220,18 +5169,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>277</v>
       </c>
       <c r="B158" t="s">
         <v>277</v>
       </c>
-      <c r="C158"/>
-      <c r="D158" t="n">
-        <v>19.85627</v>
-      </c>
-      <c r="E158" t="n">
+      <c r="D158">
+        <v>19.856269999999999</v>
+      </c>
+      <c r="E158">
         <v>102.495496</v>
       </c>
       <c r="F158" t="s">
@@ -5241,19 +5189,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>279</v>
       </c>
       <c r="B159" t="s">
         <v>279</v>
       </c>
-      <c r="C159"/>
-      <c r="D159" t="n">
-        <v>56.8796</v>
-      </c>
-      <c r="E159" t="n">
-        <v>24.6032</v>
+      <c r="D159">
+        <v>56.879600000000003</v>
+      </c>
+      <c r="E159">
+        <v>24.603200000000001</v>
       </c>
       <c r="F159" t="s">
         <v>280</v>
@@ -5262,19 +5209,18 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>281</v>
       </c>
       <c r="B160" t="s">
         <v>281</v>
       </c>
-      <c r="C160"/>
-      <c r="D160" t="n">
-        <v>33.8547</v>
-      </c>
-      <c r="E160" t="n">
-        <v>35.8623</v>
+      <c r="D160">
+        <v>33.854700000000001</v>
+      </c>
+      <c r="E160">
+        <v>35.862299999999998</v>
       </c>
       <c r="F160" t="s">
         <v>282</v>
@@ -5283,19 +5229,18 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>283</v>
       </c>
       <c r="B161" t="s">
         <v>283</v>
       </c>
-      <c r="C161"/>
-      <c r="D161" t="n">
-        <v>6.4281</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-9.4295</v>
+      <c r="D161">
+        <v>6.4280999999999997</v>
+      </c>
+      <c r="E161">
+        <v>-9.4295000000000009</v>
       </c>
       <c r="F161" t="s">
         <v>284</v>
@@ -5304,19 +5249,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>285</v>
       </c>
       <c r="B162" t="s">
         <v>285</v>
       </c>
-      <c r="C162"/>
-      <c r="D162" t="n">
-        <v>26.3351</v>
-      </c>
-      <c r="E162" t="n">
-        <v>17.228331</v>
+      <c r="D162">
+        <v>26.335100000000001</v>
+      </c>
+      <c r="E162">
+        <v>17.228331000000001</v>
       </c>
       <c r="F162" t="s">
         <v>286</v>
@@ -5325,19 +5269,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>287</v>
       </c>
       <c r="B163" t="s">
         <v>287</v>
       </c>
-      <c r="C163"/>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>47.14</v>
       </c>
-      <c r="E163" t="n">
-        <v>9.55</v>
+      <c r="E163">
+        <v>9.5500000000000007</v>
       </c>
       <c r="F163" t="s">
         <v>288</v>
@@ -5346,18 +5289,17 @@
         <v>287</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>289</v>
       </c>
       <c r="B164" t="s">
         <v>289</v>
       </c>
-      <c r="C164"/>
-      <c r="D164" t="n">
-        <v>55.1694</v>
-      </c>
-      <c r="E164" t="n">
+      <c r="D164">
+        <v>55.169400000000003</v>
+      </c>
+      <c r="E164">
         <v>23.8813</v>
       </c>
       <c r="F164" t="s">
@@ -5367,19 +5309,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>291</v>
       </c>
       <c r="B165" t="s">
         <v>291</v>
       </c>
-      <c r="C165"/>
-      <c r="D165" t="n">
-        <v>49.8153</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6.1296</v>
+      <c r="D165">
+        <v>49.815300000000001</v>
+      </c>
+      <c r="E165">
+        <v>6.1295999999999999</v>
       </c>
       <c r="F165" t="s">
         <v>292</v>
@@ -5388,19 +5329,18 @@
         <v>291</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>293</v>
       </c>
       <c r="B166" t="s">
         <v>293</v>
       </c>
-      <c r="C166"/>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-18.7669</v>
       </c>
-      <c r="E166" t="n">
-        <v>46.8691</v>
+      <c r="E166">
+        <v>46.869100000000003</v>
       </c>
       <c r="F166" t="s">
         <v>294</v>
@@ -5409,19 +5349,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>295</v>
       </c>
       <c r="B167" t="s">
         <v>295</v>
       </c>
-      <c r="C167"/>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-13.254308</v>
       </c>
-      <c r="E167" t="n">
-        <v>34.301525</v>
+      <c r="E167">
+        <v>34.301524999999998</v>
       </c>
       <c r="F167" t="s">
         <v>296</v>
@@ -5430,18 +5369,17 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>297</v>
       </c>
       <c r="B168" t="s">
         <v>297</v>
       </c>
-      <c r="C168"/>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>2.5</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>112.5</v>
       </c>
       <c r="F168" t="s">
@@ -5451,19 +5389,18 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>299</v>
       </c>
       <c r="B169" t="s">
         <v>299</v>
       </c>
-      <c r="C169"/>
-      <c r="D169" t="n">
-        <v>3.2028</v>
-      </c>
-      <c r="E169" t="n">
-        <v>73.2207</v>
+      <c r="D169">
+        <v>3.2027999999999999</v>
+      </c>
+      <c r="E169">
+        <v>73.220699999999994</v>
       </c>
       <c r="F169" t="s">
         <v>300</v>
@@ -5472,19 +5409,18 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>301</v>
       </c>
       <c r="B170" t="s">
         <v>301</v>
       </c>
-      <c r="C170"/>
-      <c r="D170" t="n">
-        <v>17.570692</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-3.996166</v>
+      <c r="D170">
+        <v>17.570692000000001</v>
+      </c>
+      <c r="E170">
+        <v>-3.9961660000000001</v>
       </c>
       <c r="F170" t="s">
         <v>302</v>
@@ -5493,19 +5429,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>303</v>
       </c>
       <c r="B171" t="s">
         <v>303</v>
       </c>
-      <c r="C171"/>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>35.9375</v>
       </c>
-      <c r="E171" t="n">
-        <v>14.3754</v>
+      <c r="E171">
+        <v>14.375400000000001</v>
       </c>
       <c r="F171" t="s">
         <v>304</v>
@@ -5514,19 +5449,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>305</v>
       </c>
       <c r="B172" t="s">
         <v>305</v>
       </c>
-      <c r="C172"/>
-      <c r="D172" t="n">
-        <v>21.0079</v>
-      </c>
-      <c r="E172" t="n">
-        <v>10.9408</v>
+      <c r="D172">
+        <v>21.007899999999999</v>
+      </c>
+      <c r="E172">
+        <v>10.940799999999999</v>
       </c>
       <c r="F172" t="s">
         <v>306</v>
@@ -5535,18 +5469,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>307</v>
       </c>
       <c r="B173" t="s">
         <v>307</v>
       </c>
-      <c r="C173"/>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-20.2</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>57.5</v>
       </c>
       <c r="F173" t="s">
@@ -5556,18 +5489,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>309</v>
       </c>
       <c r="B174" t="s">
         <v>309</v>
       </c>
-      <c r="C174"/>
-      <c r="D174" t="n">
-        <v>23.6345</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="D174">
+        <v>23.634499999999999</v>
+      </c>
+      <c r="E174">
         <v>-102.5528</v>
       </c>
       <c r="F174" t="s">
@@ -5577,19 +5509,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>311</v>
       </c>
       <c r="B175" t="s">
         <v>311</v>
       </c>
-      <c r="C175"/>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>47.4116</v>
       </c>
-      <c r="E175" t="n">
-        <v>28.3699</v>
+      <c r="E175">
+        <v>28.369900000000001</v>
       </c>
       <c r="F175" t="s">
         <v>312</v>
@@ -5598,19 +5529,18 @@
         <v>311</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>313</v>
       </c>
       <c r="B176" t="s">
         <v>313</v>
       </c>
-      <c r="C176"/>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>43.7333</v>
       </c>
-      <c r="E176" t="n">
-        <v>7.4167</v>
+      <c r="E176">
+        <v>7.4166999999999996</v>
       </c>
       <c r="F176" t="s">
         <v>314</v>
@@ -5619,18 +5549,17 @@
         <v>313</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>315</v>
       </c>
       <c r="B177" t="s">
         <v>315</v>
       </c>
-      <c r="C177"/>
-      <c r="D177" t="n">
-        <v>46.8625</v>
-      </c>
-      <c r="E177" t="n">
+      <c r="D177">
+        <v>46.862499999999997</v>
+      </c>
+      <c r="E177">
         <v>103.8467</v>
       </c>
       <c r="F177" t="s">
@@ -5640,18 +5569,17 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>317</v>
       </c>
       <c r="B178" t="s">
         <v>317</v>
       </c>
-      <c r="C178"/>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>42.5</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>19.3</v>
       </c>
       <c r="F178" t="s">
@@ -5661,18 +5589,17 @@
         <v>317</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>319</v>
       </c>
       <c r="B179" t="s">
         <v>319</v>
       </c>
-      <c r="C179"/>
-      <c r="D179" t="n">
-        <v>31.7917</v>
-      </c>
-      <c r="E179" t="n">
+      <c r="D179">
+        <v>31.791699999999999</v>
+      </c>
+      <c r="E179">
         <v>-7.0926</v>
       </c>
       <c r="F179" t="s">
@@ -5682,19 +5609,18 @@
         <v>319</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>321</v>
       </c>
       <c r="B180" t="s">
         <v>321</v>
       </c>
-      <c r="C180"/>
-      <c r="D180" t="n">
-        <v>-18.665695</v>
-      </c>
-      <c r="E180" t="n">
-        <v>35.529562</v>
+      <c r="D180">
+        <v>-18.665694999999999</v>
+      </c>
+      <c r="E180">
+        <v>35.529561999999999</v>
       </c>
       <c r="F180" t="s">
         <v>322</v>
@@ -5703,19 +5629,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>323</v>
       </c>
       <c r="B181" t="s">
         <v>323</v>
       </c>
-      <c r="C181"/>
-      <c r="D181" t="n">
-        <v>-22.9576</v>
-      </c>
-      <c r="E181" t="n">
-        <v>18.4904</v>
+      <c r="D181">
+        <v>-22.957599999999999</v>
+      </c>
+      <c r="E181">
+        <v>18.490400000000001</v>
       </c>
       <c r="F181" t="s">
         <v>324</v>
@@ -5724,18 +5649,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>325</v>
       </c>
       <c r="B182" t="s">
         <v>325</v>
       </c>
-      <c r="C182"/>
-      <c r="D182" t="n">
-        <v>28.1667</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="D182">
+        <v>28.166699999999999</v>
+      </c>
+      <c r="E182">
         <v>84.25</v>
       </c>
       <c r="F182" t="s">
@@ -5745,7 +5669,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>327</v>
       </c>
@@ -5755,11 +5679,11 @@
       <c r="C183" t="s">
         <v>328</v>
       </c>
-      <c r="D183" t="n">
-        <v>12.5186</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-70.0358</v>
+      <c r="D183">
+        <v>12.518599999999999</v>
+      </c>
+      <c r="E183">
+        <v>-70.035799999999995</v>
       </c>
       <c r="F183" t="s">
         <v>329</v>
@@ -5768,7 +5692,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>327</v>
       </c>
@@ -5778,11 +5702,11 @@
       <c r="C184" t="s">
         <v>330</v>
       </c>
-      <c r="D184" t="n">
-        <v>12.1696</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-68.99</v>
+      <c r="D184">
+        <v>12.169600000000001</v>
+      </c>
+      <c r="E184">
+        <v>-68.989999999999995</v>
       </c>
       <c r="F184" t="s">
         <v>329</v>
@@ -5791,7 +5715,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>327</v>
       </c>
@@ -5801,10 +5725,10 @@
       <c r="C185" t="s">
         <v>331</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>18.0425</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>-63.0548</v>
       </c>
       <c r="F185" t="s">
@@ -5814,7 +5738,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>327</v>
       </c>
@@ -5824,11 +5748,11 @@
       <c r="C186" t="s">
         <v>168</v>
       </c>
-      <c r="D186" t="n">
-        <v>52.1326</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.2913</v>
+      <c r="D186">
+        <v>52.132599999999996</v>
+      </c>
+      <c r="E186">
+        <v>5.2912999999999997</v>
       </c>
       <c r="F186" t="s">
         <v>329</v>
@@ -5837,7 +5761,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>327</v>
       </c>
@@ -5847,11 +5771,11 @@
       <c r="C187" t="s">
         <v>332</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>12.1784</v>
       </c>
-      <c r="E187" t="n">
-        <v>-68.2385</v>
+      <c r="E187">
+        <v>-68.238500000000002</v>
       </c>
       <c r="F187" t="s">
         <v>329</v>
@@ -5860,18 +5784,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>333</v>
       </c>
       <c r="B188" t="s">
         <v>333</v>
       </c>
-      <c r="C188"/>
-      <c r="D188" t="n">
-        <v>-40.9006</v>
-      </c>
-      <c r="E188" t="n">
+      <c r="D188">
+        <v>-40.900599999999997</v>
+      </c>
+      <c r="E188">
         <v>174.886</v>
       </c>
       <c r="F188" t="s">
@@ -5881,18 +5804,17 @@
         <v>333</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>335</v>
       </c>
       <c r="B189" t="s">
         <v>335</v>
       </c>
-      <c r="C189"/>
-      <c r="D189" t="n">
-        <v>12.8654</v>
-      </c>
-      <c r="E189" t="n">
+      <c r="D189">
+        <v>12.865399999999999</v>
+      </c>
+      <c r="E189">
         <v>-85.2072</v>
       </c>
       <c r="F189" t="s">
@@ -5902,19 +5824,18 @@
         <v>335</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>337</v>
       </c>
       <c r="B190" t="s">
         <v>337</v>
       </c>
-      <c r="C190"/>
-      <c r="D190" t="n">
-        <v>17.6078</v>
-      </c>
-      <c r="E190" t="n">
-        <v>8.0817</v>
+      <c r="D190">
+        <v>17.607800000000001</v>
+      </c>
+      <c r="E190">
+        <v>8.0816999999999997</v>
       </c>
       <c r="F190" t="s">
         <v>338</v>
@@ -5923,18 +5844,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>339</v>
       </c>
       <c r="B191" t="s">
         <v>339</v>
       </c>
-      <c r="C191"/>
-      <c r="D191" t="n">
-        <v>9.082</v>
-      </c>
-      <c r="E191" t="n">
+      <c r="D191">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="E191">
         <v>8.6753</v>
       </c>
       <c r="F191" t="s">
@@ -5944,18 +5864,17 @@
         <v>339</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>341</v>
       </c>
       <c r="B192" t="s">
         <v>341</v>
       </c>
-      <c r="C192"/>
-      <c r="D192" t="n">
-        <v>41.6086</v>
-      </c>
-      <c r="E192" t="n">
+      <c r="D192">
+        <v>41.608600000000003</v>
+      </c>
+      <c r="E192">
         <v>21.7453</v>
       </c>
       <c r="F192" t="s">
@@ -5965,19 +5884,18 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>344</v>
       </c>
       <c r="B193" t="s">
         <v>344</v>
       </c>
-      <c r="C193"/>
-      <c r="D193" t="n">
-        <v>60.472</v>
-      </c>
-      <c r="E193" t="n">
-        <v>8.4689</v>
+      <c r="D193">
+        <v>60.472000000000001</v>
+      </c>
+      <c r="E193">
+        <v>8.4688999999999997</v>
       </c>
       <c r="F193" t="s">
         <v>345</v>
@@ -5986,18 +5904,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>346</v>
       </c>
       <c r="B194" t="s">
         <v>346</v>
       </c>
-      <c r="C194"/>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>21</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>57</v>
       </c>
       <c r="F194" t="s">
@@ -6007,19 +5924,18 @@
         <v>346</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>348</v>
       </c>
       <c r="B195" t="s">
         <v>348</v>
       </c>
-      <c r="C195"/>
-      <c r="D195" t="n">
-        <v>30.3753</v>
-      </c>
-      <c r="E195" t="n">
-        <v>69.3451</v>
+      <c r="D195">
+        <v>30.375299999999999</v>
+      </c>
+      <c r="E195">
+        <v>69.345100000000002</v>
       </c>
       <c r="F195" t="s">
         <v>349</v>
@@ -6028,18 +5944,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>350</v>
       </c>
       <c r="B196" t="s">
         <v>350</v>
       </c>
-      <c r="C196"/>
-      <c r="D196" t="n">
-        <v>8.538</v>
-      </c>
-      <c r="E196" t="n">
+      <c r="D196">
+        <v>8.5380000000000003</v>
+      </c>
+      <c r="E196">
         <v>-80.7821</v>
       </c>
       <c r="F196" t="s">
@@ -6049,18 +5964,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>352</v>
       </c>
       <c r="B197" t="s">
         <v>352</v>
       </c>
-      <c r="C197"/>
-      <c r="D197" t="n">
-        <v>-6.315</v>
-      </c>
-      <c r="E197" t="n">
+      <c r="D197">
+        <v>-6.3150000000000004</v>
+      </c>
+      <c r="E197">
         <v>143.9555</v>
       </c>
       <c r="F197" t="s">
@@ -6070,19 +5984,18 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>355</v>
       </c>
       <c r="B198" t="s">
         <v>355</v>
       </c>
-      <c r="C198"/>
-      <c r="D198" t="n">
-        <v>-23.4425</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-58.4438</v>
+      <c r="D198">
+        <v>-23.442499999999999</v>
+      </c>
+      <c r="E198">
+        <v>-58.443800000000003</v>
       </c>
       <c r="F198" t="s">
         <v>356</v>
@@ -6091,19 +6004,18 @@
         <v>355</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>357</v>
       </c>
       <c r="B199" t="s">
         <v>357</v>
       </c>
-      <c r="C199"/>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-9.19</v>
       </c>
-      <c r="E199" t="n">
-        <v>-75.0152</v>
+      <c r="E199">
+        <v>-75.015199999999993</v>
       </c>
       <c r="F199" t="s">
         <v>358</v>
@@ -6112,18 +6024,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>359</v>
       </c>
       <c r="B200" t="s">
         <v>359</v>
       </c>
-      <c r="C200"/>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>13</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>122</v>
       </c>
       <c r="F200" t="s">
@@ -6133,19 +6044,18 @@
         <v>359</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>361</v>
       </c>
       <c r="B201" t="s">
         <v>361</v>
       </c>
-      <c r="C201"/>
-      <c r="D201" t="n">
-        <v>51.9194</v>
-      </c>
-      <c r="E201" t="n">
-        <v>19.1451</v>
+      <c r="D201">
+        <v>51.919400000000003</v>
+      </c>
+      <c r="E201">
+        <v>19.145099999999999</v>
       </c>
       <c r="F201" t="s">
         <v>362</v>
@@ -6154,19 +6064,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>363</v>
       </c>
       <c r="B202" t="s">
         <v>363</v>
       </c>
-      <c r="C202"/>
-      <c r="D202" t="n">
-        <v>39.3999</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-8.2245</v>
+      <c r="D202">
+        <v>39.399900000000002</v>
+      </c>
+      <c r="E202">
+        <v>-8.2245000000000008</v>
       </c>
       <c r="F202" t="s">
         <v>364</v>
@@ -6175,19 +6084,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>365</v>
       </c>
       <c r="B203" t="s">
         <v>365</v>
       </c>
-      <c r="C203"/>
-      <c r="D203" t="n">
-        <v>25.3548</v>
-      </c>
-      <c r="E203" t="n">
-        <v>51.1839</v>
+      <c r="D203">
+        <v>25.354800000000001</v>
+      </c>
+      <c r="E203">
+        <v>51.183900000000001</v>
       </c>
       <c r="F203" t="s">
         <v>366</v>
@@ -6196,19 +6104,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>367</v>
       </c>
       <c r="B204" t="s">
         <v>367</v>
       </c>
-      <c r="C204"/>
-      <c r="D204" t="n">
-        <v>45.9432</v>
-      </c>
-      <c r="E204" t="n">
-        <v>24.9668</v>
+      <c r="D204">
+        <v>45.943199999999997</v>
+      </c>
+      <c r="E204">
+        <v>24.966799999999999</v>
       </c>
       <c r="F204" t="s">
         <v>368</v>
@@ -6217,18 +6124,17 @@
         <v>367</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>369</v>
       </c>
       <c r="B205" t="s">
         <v>370</v>
       </c>
-      <c r="C205"/>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>60</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>90</v>
       </c>
       <c r="F205" t="s">
@@ -6238,19 +6144,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>372</v>
       </c>
       <c r="B206" t="s">
         <v>372</v>
       </c>
-      <c r="C206"/>
-      <c r="D206" t="n">
-        <v>-1.9403</v>
-      </c>
-      <c r="E206" t="n">
-        <v>29.8739</v>
+      <c r="D206">
+        <v>-1.9402999999999999</v>
+      </c>
+      <c r="E206">
+        <v>29.873899999999999</v>
       </c>
       <c r="F206" t="s">
         <v>373</v>
@@ -6259,19 +6164,18 @@
         <v>372</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>374</v>
       </c>
       <c r="B207" t="s">
         <v>374</v>
       </c>
-      <c r="C207"/>
-      <c r="D207" t="n">
-        <v>17.357822</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-62.782998</v>
+      <c r="D207">
+        <v>17.357821999999999</v>
+      </c>
+      <c r="E207">
+        <v>-62.782997999999999</v>
       </c>
       <c r="F207" t="s">
         <v>375</v>
@@ -6280,19 +6184,18 @@
         <v>374</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>376</v>
       </c>
       <c r="B208" t="s">
         <v>376</v>
       </c>
-      <c r="C208"/>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>13.9094</v>
       </c>
-      <c r="E208" t="n">
-        <v>-60.9789</v>
+      <c r="E208">
+        <v>-60.978900000000003</v>
       </c>
       <c r="F208" t="s">
         <v>377</v>
@@ -6301,19 +6204,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>378</v>
       </c>
       <c r="B209" t="s">
         <v>378</v>
       </c>
-      <c r="C209"/>
-      <c r="D209" t="n">
-        <v>12.9843</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-61.2872</v>
+      <c r="D209">
+        <v>12.984299999999999</v>
+      </c>
+      <c r="E209">
+        <v>-61.287199999999999</v>
       </c>
       <c r="F209" t="s">
         <v>379</v>
@@ -6322,19 +6224,18 @@
         <v>378</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>380</v>
       </c>
       <c r="B210" t="s">
         <v>380</v>
       </c>
-      <c r="C210"/>
-      <c r="D210" t="n">
-        <v>43.9424</v>
-      </c>
-      <c r="E210" t="n">
-        <v>12.4578</v>
+      <c r="D210">
+        <v>43.942399999999999</v>
+      </c>
+      <c r="E210">
+        <v>12.457800000000001</v>
       </c>
       <c r="F210" t="s">
         <v>381</v>
@@ -6343,19 +6244,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>382</v>
       </c>
       <c r="B211" t="s">
         <v>382</v>
       </c>
-      <c r="C211"/>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>0.18636</v>
       </c>
-      <c r="E211" t="n">
-        <v>6.613081</v>
+      <c r="E211">
+        <v>6.6130810000000002</v>
       </c>
       <c r="F211" t="s">
         <v>383</v>
@@ -6364,18 +6264,17 @@
         <v>382</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>384</v>
       </c>
       <c r="B212" t="s">
         <v>384</v>
       </c>
-      <c r="C212"/>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>24</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>45</v>
       </c>
       <c r="F212" t="s">
@@ -6385,19 +6284,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>386</v>
       </c>
       <c r="B213" t="s">
         <v>386</v>
       </c>
-      <c r="C213"/>
-      <c r="D213" t="n">
-        <v>14.4974</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-14.4524</v>
+      <c r="D213">
+        <v>14.497400000000001</v>
+      </c>
+      <c r="E213">
+        <v>-14.452400000000001</v>
       </c>
       <c r="F213" t="s">
         <v>387</v>
@@ -6406,7 +6304,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>271</v>
       </c>
@@ -6416,10 +6314,10 @@
       <c r="C214" t="s">
         <v>388</v>
       </c>
-      <c r="D214" t="n">
-        <v>44.0165</v>
-      </c>
-      <c r="E214" t="n">
+      <c r="D214">
+        <v>44.016500000000001</v>
+      </c>
+      <c r="E214">
         <v>21.0059</v>
       </c>
       <c r="F214" t="s">
@@ -6429,19 +6327,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>389</v>
       </c>
       <c r="B215" t="s">
         <v>389</v>
       </c>
-      <c r="C215"/>
-      <c r="D215" t="n">
-        <v>-4.6796</v>
-      </c>
-      <c r="E215" t="n">
-        <v>55.492</v>
+      <c r="D215">
+        <v>-4.6795999999999998</v>
+      </c>
+      <c r="E215">
+        <v>55.491999999999997</v>
       </c>
       <c r="F215" t="s">
         <v>390</v>
@@ -6450,19 +6347,18 @@
         <v>389</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>391</v>
       </c>
       <c r="B216" t="s">
         <v>391</v>
       </c>
-      <c r="C216"/>
-      <c r="D216" t="n">
-        <v>8.460555</v>
-      </c>
-      <c r="E216" t="n">
-        <v>-11.779889</v>
+      <c r="D216">
+        <v>8.4605549999999994</v>
+      </c>
+      <c r="E216">
+        <v>-11.779889000000001</v>
       </c>
       <c r="F216" t="s">
         <v>392</v>
@@ -6471,19 +6367,18 @@
         <v>391</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>393</v>
       </c>
       <c r="B217" t="s">
         <v>393</v>
       </c>
-      <c r="C217"/>
-      <c r="D217" t="n">
-        <v>1.2833</v>
-      </c>
-      <c r="E217" t="n">
-        <v>103.8333</v>
+      <c r="D217">
+        <v>1.2833000000000001</v>
+      </c>
+      <c r="E217">
+        <v>103.83329999999999</v>
       </c>
       <c r="F217" t="s">
         <v>394</v>
@@ -6492,19 +6387,18 @@
         <v>393</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>395</v>
       </c>
       <c r="B218" t="s">
         <v>395</v>
       </c>
-      <c r="C218"/>
-      <c r="D218" t="n">
-        <v>48.669</v>
-      </c>
-      <c r="E218" t="n">
-        <v>19.699</v>
+      <c r="D218">
+        <v>48.668999999999997</v>
+      </c>
+      <c r="E218">
+        <v>19.699000000000002</v>
       </c>
       <c r="F218" t="s">
         <v>396</v>
@@ -6513,18 +6407,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>397</v>
       </c>
       <c r="B219" t="s">
         <v>397</v>
       </c>
-      <c r="C219"/>
-      <c r="D219" t="n">
-        <v>46.1512</v>
-      </c>
-      <c r="E219" t="n">
+      <c r="D219">
+        <v>46.151200000000003</v>
+      </c>
+      <c r="E219">
         <v>14.9955</v>
       </c>
       <c r="F219" t="s">
@@ -6534,19 +6427,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>399</v>
       </c>
       <c r="B220" t="s">
         <v>399</v>
       </c>
-      <c r="C220"/>
-      <c r="D220" t="n">
-        <v>5.1521</v>
-      </c>
-      <c r="E220" t="n">
-        <v>46.1996</v>
+      <c r="D220">
+        <v>5.1520999999999999</v>
+      </c>
+      <c r="E220">
+        <v>46.199599999999997</v>
       </c>
       <c r="F220" t="s">
         <v>400</v>
@@ -6555,18 +6447,17 @@
         <v>401</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>402</v>
       </c>
       <c r="B221" t="s">
         <v>402</v>
       </c>
-      <c r="C221"/>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-30.5595</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>22.9375</v>
       </c>
       <c r="F221" t="s">
@@ -6576,19 +6467,18 @@
         <v>402</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>404</v>
       </c>
       <c r="B222" t="s">
         <v>404</v>
       </c>
-      <c r="C222"/>
-      <c r="D222" t="n">
-        <v>6.877</v>
-      </c>
-      <c r="E222" t="n">
-        <v>31.307</v>
+      <c r="D222">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="E222">
+        <v>31.306999999999999</v>
       </c>
       <c r="F222" t="s">
         <v>405</v>
@@ -6597,18 +6487,17 @@
         <v>404</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>406</v>
       </c>
       <c r="B223" t="s">
         <v>406</v>
       </c>
-      <c r="C223"/>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>40</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>-4</v>
       </c>
       <c r="F223" t="s">
@@ -6618,18 +6507,17 @@
         <v>406</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>408</v>
       </c>
       <c r="B224" t="s">
         <v>408</v>
       </c>
-      <c r="C224"/>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>7</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>81</v>
       </c>
       <c r="F224" t="s">
@@ -6639,19 +6527,18 @@
         <v>408</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>410</v>
       </c>
       <c r="B225" t="s">
         <v>410</v>
       </c>
-      <c r="C225"/>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>12.8628</v>
       </c>
-      <c r="E225" t="n">
-        <v>30.2176</v>
+      <c r="E225">
+        <v>30.217600000000001</v>
       </c>
       <c r="F225" t="s">
         <v>411</v>
@@ -6660,19 +6547,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>412</v>
       </c>
       <c r="B226" t="s">
         <v>412</v>
       </c>
-      <c r="C226"/>
-      <c r="D226" t="n">
-        <v>3.9193</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-56.0278</v>
+      <c r="D226">
+        <v>3.9192999999999998</v>
+      </c>
+      <c r="E226">
+        <v>-56.027799999999999</v>
       </c>
       <c r="F226" t="s">
         <v>413</v>
@@ -6681,18 +6567,17 @@
         <v>412</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>414</v>
       </c>
       <c r="B227" t="s">
         <v>414</v>
       </c>
-      <c r="C227"/>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>63</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>16</v>
       </c>
       <c r="F227" t="s">
@@ -6702,19 +6587,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>416</v>
       </c>
       <c r="B228" t="s">
         <v>416</v>
       </c>
-      <c r="C228"/>
-      <c r="D228" t="n">
-        <v>46.8182</v>
-      </c>
-      <c r="E228" t="n">
-        <v>8.2275</v>
+      <c r="D228">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="E228">
+        <v>8.2274999999999991</v>
       </c>
       <c r="F228" t="s">
         <v>417</v>
@@ -6723,19 +6607,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>418</v>
       </c>
       <c r="B229" t="s">
         <v>418</v>
       </c>
-      <c r="C229"/>
-      <c r="D229" t="n">
-        <v>34.802075</v>
-      </c>
-      <c r="E229" t="n">
-        <v>38.996815</v>
+      <c r="D229">
+        <v>34.802075000000002</v>
+      </c>
+      <c r="E229">
+        <v>38.996814999999998</v>
       </c>
       <c r="F229" t="s">
         <v>419</v>
@@ -6744,18 +6627,17 @@
         <v>418</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>420</v>
       </c>
       <c r="B230" t="s">
         <v>421</v>
       </c>
-      <c r="C230"/>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>23.7</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>121</v>
       </c>
       <c r="F230" t="s">
@@ -6765,19 +6647,18 @@
         <v>421</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>423</v>
       </c>
       <c r="B231" t="s">
         <v>423</v>
       </c>
-      <c r="C231"/>
-      <c r="D231" t="n">
-        <v>-6.369</v>
-      </c>
-      <c r="E231" t="n">
-        <v>34.8888</v>
+      <c r="D231">
+        <v>-6.3689999999999998</v>
+      </c>
+      <c r="E231">
+        <v>34.888800000000003</v>
       </c>
       <c r="F231" t="s">
         <v>424</v>
@@ -6786,18 +6667,17 @@
         <v>423</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>425</v>
       </c>
       <c r="B232" t="s">
         <v>425</v>
       </c>
-      <c r="C232"/>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>15</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>101</v>
       </c>
       <c r="F232" t="s">
@@ -6807,19 +6687,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>427</v>
       </c>
       <c r="B233" t="s">
         <v>428</v>
       </c>
-      <c r="C233"/>
-      <c r="D233" t="n">
-        <v>-8.874217</v>
-      </c>
-      <c r="E233" t="n">
-        <v>125.727539</v>
+      <c r="D233">
+        <v>-8.8742169999999998</v>
+      </c>
+      <c r="E233">
+        <v>125.72753899999999</v>
       </c>
       <c r="F233" t="s">
         <v>429</v>
@@ -6828,19 +6707,18 @@
         <v>428</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>430</v>
       </c>
       <c r="B234" t="s">
         <v>430</v>
       </c>
-      <c r="C234"/>
-      <c r="D234" t="n">
-        <v>8.6195</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.8248</v>
+      <c r="D234">
+        <v>8.6195000000000004</v>
+      </c>
+      <c r="E234">
+        <v>0.82479999999999998</v>
       </c>
       <c r="F234" t="s">
         <v>431</v>
@@ -6849,19 +6727,18 @@
         <v>430</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>432</v>
       </c>
       <c r="B235" t="s">
         <v>432</v>
       </c>
-      <c r="C235"/>
-      <c r="D235" t="n">
-        <v>10.6918</v>
-      </c>
-      <c r="E235" t="n">
-        <v>-61.2225</v>
+      <c r="D235">
+        <v>10.691800000000001</v>
+      </c>
+      <c r="E235">
+        <v>-61.222499999999997</v>
       </c>
       <c r="F235" t="s">
         <v>433</v>
@@ -6870,18 +6747,17 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>434</v>
       </c>
       <c r="B236" t="s">
         <v>434</v>
       </c>
-      <c r="C236"/>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>34</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>9</v>
       </c>
       <c r="F236" t="s">
@@ -6891,19 +6767,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>436</v>
       </c>
       <c r="B237" t="s">
         <v>436</v>
       </c>
-      <c r="C237"/>
-      <c r="D237" t="n">
-        <v>38.9637</v>
-      </c>
-      <c r="E237" t="n">
-        <v>35.2433</v>
+      <c r="D237">
+        <v>38.963700000000003</v>
+      </c>
+      <c r="E237">
+        <v>35.243299999999998</v>
       </c>
       <c r="F237" t="s">
         <v>437</v>
@@ -6912,18 +6787,17 @@
         <v>436</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>438</v>
       </c>
       <c r="B238" t="s">
         <v>438</v>
       </c>
-      <c r="C238"/>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>1</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>32</v>
       </c>
       <c r="F238" t="s">
@@ -6933,19 +6807,18 @@
         <v>438</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>440</v>
       </c>
       <c r="B239" t="s">
         <v>440</v>
       </c>
-      <c r="C239"/>
-      <c r="D239" t="n">
-        <v>48.3794</v>
-      </c>
-      <c r="E239" t="n">
-        <v>31.1656</v>
+      <c r="D239">
+        <v>48.379399999999997</v>
+      </c>
+      <c r="E239">
+        <v>31.165600000000001</v>
       </c>
       <c r="F239" t="s">
         <v>441</v>
@@ -6954,18 +6827,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>442</v>
       </c>
       <c r="B240" t="s">
         <v>442</v>
       </c>
-      <c r="C240"/>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>24</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>54</v>
       </c>
       <c r="F240" t="s">
@@ -6975,7 +6847,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>444</v>
       </c>
@@ -6985,18 +6857,17 @@
       <c r="C241" t="s">
         <v>445</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>32.3078</v>
       </c>
-      <c r="E241" t="n">
-        <v>-64.7505</v>
+      <c r="E241">
+        <v>-64.750500000000002</v>
       </c>
       <c r="F241" t="s">
         <v>446</v>
       </c>
-      <c r="G241"/>
-    </row>
-    <row r="242">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>444</v>
       </c>
@@ -7006,18 +6877,17 @@
       <c r="C242" t="s">
         <v>447</v>
       </c>
-      <c r="D242" t="n">
-        <v>19.3133</v>
-      </c>
-      <c r="E242" t="n">
-        <v>-81.2546</v>
+      <c r="D242">
+        <v>19.313300000000002</v>
+      </c>
+      <c r="E242">
+        <v>-81.254599999999996</v>
       </c>
       <c r="F242" t="s">
         <v>446</v>
       </c>
-      <c r="G242"/>
-    </row>
-    <row r="243">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>444</v>
       </c>
@@ -7027,18 +6897,17 @@
       <c r="C243" t="s">
         <v>448</v>
       </c>
-      <c r="D243" t="n">
-        <v>49.3723</v>
-      </c>
-      <c r="E243" t="n">
-        <v>-2.3644</v>
+      <c r="D243">
+        <v>49.372300000000003</v>
+      </c>
+      <c r="E243">
+        <v>-2.3643999999999998</v>
       </c>
       <c r="F243" t="s">
         <v>446</v>
       </c>
-      <c r="G243"/>
-    </row>
-    <row r="244">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>444</v>
       </c>
@@ -7048,18 +6917,17 @@
       <c r="C244" t="s">
         <v>449</v>
       </c>
-      <c r="D244" t="n">
-        <v>36.1408</v>
-      </c>
-      <c r="E244" t="n">
-        <v>-5.3536</v>
+      <c r="D244">
+        <v>36.140799999999999</v>
+      </c>
+      <c r="E244">
+        <v>-5.3536000000000001</v>
       </c>
       <c r="F244" t="s">
         <v>446</v>
       </c>
-      <c r="G244"/>
-    </row>
-    <row r="245">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>444</v>
       </c>
@@ -7069,18 +6937,17 @@
       <c r="C245" t="s">
         <v>450</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>54.2361</v>
       </c>
-      <c r="E245" t="n">
-        <v>-4.5481</v>
+      <c r="E245">
+        <v>-4.5480999999999998</v>
       </c>
       <c r="F245" t="s">
         <v>446</v>
       </c>
-      <c r="G245"/>
-    </row>
-    <row r="246">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>444</v>
       </c>
@@ -7090,18 +6957,17 @@
       <c r="C246" t="s">
         <v>451</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>16.7425</v>
       </c>
-      <c r="E246" t="n">
-        <v>-62.1874</v>
+      <c r="E246">
+        <v>-62.187399999999997</v>
       </c>
       <c r="F246" t="s">
         <v>446</v>
       </c>
-      <c r="G246"/>
-    </row>
-    <row r="247">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>444</v>
       </c>
@@ -7111,18 +6977,17 @@
       <c r="C247" t="s">
         <v>168</v>
       </c>
-      <c r="D247" t="n">
-        <v>55.3781</v>
-      </c>
-      <c r="E247" t="n">
-        <v>-3.436</v>
+      <c r="D247">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="E247">
+        <v>-3.4359999999999999</v>
       </c>
       <c r="F247" t="s">
         <v>446</v>
       </c>
-      <c r="G247"/>
-    </row>
-    <row r="248">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>444</v>
       </c>
@@ -7132,18 +6997,17 @@
       <c r="C248" t="s">
         <v>452</v>
       </c>
-      <c r="D248" t="n">
-        <v>18.2206</v>
-      </c>
-      <c r="E248" t="n">
-        <v>-63.0686</v>
+      <c r="D248">
+        <v>18.220600000000001</v>
+      </c>
+      <c r="E248">
+        <v>-63.068600000000004</v>
       </c>
       <c r="F248" t="s">
         <v>446</v>
       </c>
-      <c r="G248"/>
-    </row>
-    <row r="249">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -7153,18 +7017,17 @@
       <c r="C249" t="s">
         <v>453</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>18.4207</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>-64.64</v>
       </c>
       <c r="F249" t="s">
         <v>446</v>
       </c>
-      <c r="G249"/>
-    </row>
-    <row r="250">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>444</v>
       </c>
@@ -7174,18 +7037,17 @@
       <c r="C250" t="s">
         <v>454</v>
       </c>
-      <c r="D250" t="n">
-        <v>21.694</v>
-      </c>
-      <c r="E250" t="n">
-        <v>-71.7979</v>
+      <c r="D250">
+        <v>21.693999999999999</v>
+      </c>
+      <c r="E250">
+        <v>-71.797899999999998</v>
       </c>
       <c r="F250" t="s">
         <v>446</v>
       </c>
-      <c r="G250"/>
-    </row>
-    <row r="251">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>444</v>
       </c>
@@ -7195,30 +7057,28 @@
       <c r="C251" t="s">
         <v>455</v>
       </c>
-      <c r="D251" t="n">
-        <v>-51.7963</v>
-      </c>
-      <c r="E251" t="n">
-        <v>-59.5236</v>
+      <c r="D251">
+        <v>-51.796300000000002</v>
+      </c>
+      <c r="E251">
+        <v>-59.523600000000002</v>
       </c>
       <c r="F251" t="s">
         <v>446</v>
       </c>
-      <c r="G251"/>
-    </row>
-    <row r="252">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>456</v>
       </c>
       <c r="B252" t="s">
         <v>456</v>
       </c>
-      <c r="C252"/>
-      <c r="D252" t="n">
-        <v>-32.5228</v>
-      </c>
-      <c r="E252" t="n">
-        <v>-55.7658</v>
+      <c r="D252">
+        <v>-32.522799999999997</v>
+      </c>
+      <c r="E252">
+        <v>-55.765799999999999</v>
       </c>
       <c r="F252" t="s">
         <v>457</v>
@@ -7227,19 +7087,18 @@
         <v>456</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>458</v>
       </c>
       <c r="B253" t="s">
         <v>459</v>
       </c>
-      <c r="C253"/>
-      <c r="D253" t="n">
-        <v>37.0902</v>
-      </c>
-      <c r="E253" t="n">
-        <v>-95.7129</v>
+      <c r="D253">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="E253">
+        <v>-95.712900000000005</v>
       </c>
       <c r="F253" t="s">
         <v>460</v>
@@ -7248,19 +7107,18 @@
         <v>459</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>461</v>
       </c>
       <c r="B254" t="s">
         <v>461</v>
       </c>
-      <c r="C254"/>
-      <c r="D254" t="n">
-        <v>41.3775</v>
-      </c>
-      <c r="E254" t="n">
-        <v>64.5853</v>
+      <c r="D254">
+        <v>41.377499999999998</v>
+      </c>
+      <c r="E254">
+        <v>64.585300000000004</v>
       </c>
       <c r="F254" t="s">
         <v>462</v>
@@ -7269,19 +7127,18 @@
         <v>461</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>463</v>
       </c>
       <c r="B255" t="s">
         <v>463</v>
       </c>
-      <c r="C255"/>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>6.4238</v>
       </c>
-      <c r="E255" t="n">
-        <v>-66.5897</v>
+      <c r="E255">
+        <v>-66.589699999999993</v>
       </c>
       <c r="F255" t="s">
         <v>464</v>
@@ -7290,18 +7147,17 @@
         <v>463</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>465</v>
       </c>
       <c r="B256" t="s">
         <v>466</v>
       </c>
-      <c r="C256"/>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>16</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E256">
         <v>108</v>
       </c>
       <c r="F256" t="s">
@@ -7311,19 +7167,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>468</v>
       </c>
       <c r="B257" t="s">
         <v>469</v>
       </c>
-      <c r="C257"/>
-      <c r="D257" t="n">
-        <v>31.9522</v>
-      </c>
-      <c r="E257" t="n">
-        <v>35.2332</v>
+      <c r="D257">
+        <v>31.952200000000001</v>
+      </c>
+      <c r="E257">
+        <v>35.233199999999997</v>
       </c>
       <c r="F257" t="s">
         <v>470</v>
@@ -7332,38 +7187,35 @@
         <v>471</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>472</v>
       </c>
       <c r="B258" t="s">
         <v>472</v>
       </c>
-      <c r="C258"/>
-      <c r="D258" t="n">
-        <v>24.2155</v>
-      </c>
-      <c r="E258" t="n">
+      <c r="D258">
+        <v>24.215499999999999</v>
+      </c>
+      <c r="E258">
         <v>-12.8858</v>
       </c>
       <c r="F258" t="s">
         <v>473</v>
       </c>
-      <c r="G258"/>
-    </row>
-    <row r="259">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>474</v>
       </c>
       <c r="B259" t="s">
         <v>474</v>
       </c>
-      <c r="C259"/>
-      <c r="D259" t="n">
-        <v>15.552727</v>
-      </c>
-      <c r="E259" t="n">
-        <v>48.516388</v>
+      <c r="D259">
+        <v>15.552727000000001</v>
+      </c>
+      <c r="E259">
+        <v>48.516387999999999</v>
       </c>
       <c r="F259" t="s">
         <v>475</v>
@@ -7372,19 +7224,18 @@
         <v>474</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>476</v>
       </c>
       <c r="B260" t="s">
         <v>476</v>
       </c>
-      <c r="C260"/>
-      <c r="D260" t="n">
-        <v>-15.4167</v>
-      </c>
-      <c r="E260" t="n">
-        <v>28.2833</v>
+      <c r="D260">
+        <v>-15.416700000000001</v>
+      </c>
+      <c r="E260">
+        <v>28.283300000000001</v>
       </c>
       <c r="F260" t="s">
         <v>477</v>
@@ -7393,18 +7244,17 @@
         <v>476</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>478</v>
       </c>
       <c r="B261" t="s">
         <v>478</v>
       </c>
-      <c r="C261"/>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-20</v>
       </c>
-      <c r="E261" t="n">
+      <c r="E261">
         <v>30</v>
       </c>
       <c r="F261" t="s">
@@ -7414,8 +7264,41 @@
         <v>478</v>
       </c>
     </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
+        <v>480</v>
+      </c>
+      <c r="F262" t="s">
+        <v>481</v>
+      </c>
+      <c r="G262" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>482</v>
+      </c>
+      <c r="F263" t="s">
+        <v>483</v>
+      </c>
+      <c r="G263" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>484</v>
+      </c>
+      <c r="F264" t="s">
+        <v>485</v>
+      </c>
+      <c r="G264" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>